--- a/data/taxon genera files/K genera reduced.xlsx
+++ b/data/taxon genera files/K genera reduced.xlsx
@@ -16,26 +16,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="603">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="606">
   <si>
     <t>&lt;Modern plant genus to which the following fossil pollen species have been assigned.&gt;</t>
   </si>
   <si>
     <r>
-      <t>Kachiisporis bivalvus</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Yi 1997</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>Kagulubeites balmei</t>
     </r>
     <r>
@@ -5102,9 +5088,6 @@
       </rPr>
       <t xml:space="preserve"> Agrali &amp; Akyol 1967</t>
     </r>
-  </si>
-  <si>
-    <t>KACHIISPORIS</t>
   </si>
   <si>
     <t>KALOCHITINA</t>
@@ -8823,6 +8806,129 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve"> (Chibrikova) McGregor &amp; Camfield 1982</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Pontiadinium</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Stover &amp; Evitt 1978; p. 180.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Krutzschipollis rotundus </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Góczán &amp; Siegl-Farkas 1989</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Krutzschipollis elegans </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Góczán &amp; Siegl-Farkas 1989</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Kachiisporis bivalvus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Yi 1997 (T)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">KACHIISPORIS </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Yi 1997; see</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Diagonalites</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
     </r>
   </si>
 </sst>
@@ -9355,10 +9461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M604"/>
+  <dimension ref="A1:M607"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A581" workbookViewId="0">
-      <selection activeCell="E604" sqref="E604"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -9372,563 +9478,563 @@
   <sheetData>
     <row r="1" spans="2:5" ht="18" x14ac:dyDescent="0.25">
       <c r="B1" s="10" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E4" s="1" t="s">
-        <v>1</v>
+        <v>604</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B5" s="5" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E6" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E7" s="2" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E8" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B9" s="5" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E10" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E11" s="2" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="12" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B12" s="5" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E13" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="14" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E14" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E15" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B16" s="5" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E17" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B18" s="5" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E18" s="2"/>
     </row>
     <row r="19" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E19" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E20" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E21" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E22" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E23" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E24" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="25" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E25" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="26" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E26" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E27" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E28" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E29" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E30" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E31" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E32" s="1" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="33" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E33" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="34" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E34" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="35" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E35" s="9" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="36" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E36" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E37" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E38" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E39" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="40" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E40" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E41" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E42" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E43" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E44" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="45" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E45" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="46" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E46" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E47" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="48" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E48" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="49" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E49" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="50" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B50" s="5" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E50" s="2"/>
     </row>
     <row r="51" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E51" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="52" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E52" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="53" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E53" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="54" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B54" s="5" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E54" s="2"/>
     </row>
     <row r="55" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E55" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="56" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E56" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="57" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E57" s="1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="58" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E58" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="59" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E59" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="60" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E60" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="61" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E61" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="62" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E62" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="63" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E63" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="64" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E64" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="65" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E65" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="66" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E66" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="67" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B67" s="5" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E67" s="2"/>
     </row>
     <row r="68" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E68" s="2" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="69" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B69" s="5" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E69" s="2"/>
     </row>
     <row r="70" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E70" s="1" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="71" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B71" s="5" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E71" s="1"/>
     </row>
     <row r="72" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E72" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="73" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E73" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="74" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B74" s="5" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E74" s="1"/>
     </row>
     <row r="75" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E75" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="76" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E76" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="77" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E77" s="2" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="78" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B78" s="5" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="E78" s="2"/>
     </row>
     <row r="79" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E79" s="2" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="80" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B80" s="5" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E80" s="2"/>
     </row>
     <row r="81" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E81" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="82" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E82" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="83" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B83" s="5" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E83" s="2"/>
     </row>
     <row r="84" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E84" s="1" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="85" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B85" s="5" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E85" s="1"/>
     </row>
     <row r="86" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E86" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="87" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B87" s="5" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="E87" s="2"/>
     </row>
     <row r="88" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E88" s="1" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="89" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B89" s="5" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="E89" s="1"/>
     </row>
     <row r="90" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E90" s="1" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="91" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B91" s="5" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="E91" s="1"/>
     </row>
     <row r="92" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E92" s="1" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="93" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E93" s="2" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="94" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B94" s="5" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E94" s="2"/>
     </row>
     <row r="95" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E95" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="96" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E96" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="97" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E97" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="98" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E98" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="99" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E99" s="2" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="100" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E100" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="101" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E101" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="102" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E102" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="103" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E103" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="104" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B104" s="5" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="E104" s="2"/>
     </row>
     <row r="105" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="E105" s="21" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="106" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B106" s="5" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="E106" s="2"/>
     </row>
     <row r="107" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E107" s="1" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="108" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E108" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="109" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B109" s="5" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E109" s="2"/>
     </row>
@@ -9940,7 +10046,7 @@
     </row>
     <row r="111" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E111" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="112" spans="1:13" s="19" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
@@ -9949,7 +10055,7 @@
       <c r="C112" s="13"/>
       <c r="D112" s="14"/>
       <c r="E112" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F112" s="15"/>
       <c r="G112" s="16"/>
@@ -9966,7 +10072,7 @@
       <c r="C113" s="13"/>
       <c r="D113" s="14"/>
       <c r="E113" s="21" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="F113" s="20"/>
       <c r="G113" s="16"/>
@@ -9983,7 +10089,7 @@
       <c r="C114" s="13"/>
       <c r="D114" s="14"/>
       <c r="E114" s="21" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="F114" s="20"/>
       <c r="G114" s="16"/>
@@ -9996,33 +10102,33 @@
     </row>
     <row r="115" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E115" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="116" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="E116" s="21" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="117" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E117" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="118" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E118" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="119" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B119" s="5" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E119" s="2"/>
     </row>
     <row r="120" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E120" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="121" spans="1:13" s="19" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
@@ -10031,7 +10137,7 @@
       <c r="C121" s="13"/>
       <c r="D121" s="14"/>
       <c r="E121" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F121" s="20"/>
       <c r="G121" s="16"/>
@@ -10048,7 +10154,7 @@
       <c r="C122" s="13"/>
       <c r="D122" s="22"/>
       <c r="E122" s="9" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="F122" s="20"/>
       <c r="G122" s="16"/>
@@ -10065,7 +10171,7 @@
       <c r="C123" s="13"/>
       <c r="D123" s="14"/>
       <c r="E123" s="21" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="F123" s="20"/>
       <c r="G123" s="16"/>
@@ -10082,7 +10188,7 @@
       <c r="C124" s="13"/>
       <c r="D124" s="14"/>
       <c r="E124" s="1" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="F124" s="15"/>
       <c r="G124" s="16"/>
@@ -10095,2473 +10201,2489 @@
     </row>
     <row r="125" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E125" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="126" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E126" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="127" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E127" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="128" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E128" s="9" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="129" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E129" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="130" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B130" s="5" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E130" s="2"/>
     </row>
     <row r="131" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E131" s="1" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="132" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B132" s="5" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="E132" s="1"/>
     </row>
     <row r="133" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E133" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="134" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E134" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="135" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E135" s="2" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="136" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E136" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="137" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E137" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="138" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E138" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="139" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B139" s="5" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="E139" s="2"/>
     </row>
     <row r="140" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E140" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="141" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E141" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="142" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B142" s="5" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="E142" s="1"/>
     </row>
     <row r="143" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E143" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="144" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B144" s="5" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="E144" s="1"/>
     </row>
     <row r="145" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E145" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="146" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E146" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="147" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B147" s="5" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="E147" s="2"/>
     </row>
     <row r="148" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E148" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="149" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B149" s="5" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="E149" s="2"/>
     </row>
     <row r="150" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E150" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="151" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E151" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="152" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E152" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="153" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E153" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="154" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E154" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="155" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E155" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="156" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E156" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="157" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E157" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="158" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E158" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="159" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E159" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="160" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E160" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="161" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E161" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="162" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E162" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="163" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E163" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="164" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E164" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="165" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E165" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="166" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E166" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="167" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B167" s="5" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="E167" s="1"/>
     </row>
     <row r="168" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E168" s="2" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="169" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E169" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="170" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E170" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="171" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E171" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="172" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E172" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="173" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B173" s="5" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E173" s="2"/>
     </row>
     <row r="174" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E174" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="175" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E175" s="2" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="176" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B176" s="5" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E176" s="2"/>
     </row>
     <row r="177" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E177" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="178" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E178" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="179" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B179" s="5" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E179" s="2"/>
     </row>
     <row r="180" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E180" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="181" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E181" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="182" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E182" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="183" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E183" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="184" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E184" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="185" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E185" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="186" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B186" s="5" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E186" s="2"/>
     </row>
     <row r="187" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E187" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="188" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E188" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="189" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E189" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="190" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E190" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="191" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E191" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="192" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E192" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="193" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E193" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="194" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E194" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="195" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E195" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="196" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E196" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="197" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E197" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="198" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E198" s="2" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="199" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E199" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="200" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E200" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="201" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B201" s="5" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="E201" s="2"/>
     </row>
     <row r="202" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="E202" s="3" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="203" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B203" s="5" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E203" s="1"/>
     </row>
     <row r="204" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E204" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="205" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="E205" s="21" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="206" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B206" s="5" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E206" s="1"/>
     </row>
     <row r="207" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D207" s="6" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E207" s="1"/>
     </row>
     <row r="208" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E208" s="4" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="209" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E209" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="210" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E210" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="211" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E211" s="1" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="212" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E212" s="1" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="213" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E213" s="1" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="214" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E214" s="2" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="215" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E215" s="2" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="216" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E216" s="2" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="217" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E217" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="218" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E218" s="1" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="219" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E219" s="1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="220" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E220" s="1" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="221" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E221" s="2" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="222" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E222" s="2" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="223" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E223" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="224" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E224" s="2" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="225" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E225" s="2" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="226" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E226" s="1" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="227" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E227" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="228" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E228" s="2" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="229" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E229" s="2" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="230" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E230" s="2" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="231" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E231" s="2" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="232" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E232" s="2" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="233" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E233" s="2" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="234" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E234" s="2" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="235" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E235" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="236" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B236" s="5" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E236" s="1"/>
     </row>
     <row r="237" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E237" s="2" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="238" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B238" s="5" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E238" s="2"/>
     </row>
     <row r="239" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E239" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="240" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B240" s="5" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="E240" s="2"/>
     </row>
     <row r="241" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E241" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="242" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E242" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="243" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E243" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="244" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E244" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="245" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E245" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="246" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E246" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="247" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E247" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="248" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E248" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="249" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E249" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="250" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E250" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="251" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E251" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="252" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E252" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="253" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E253" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="254" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E254" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="255" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E255" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="256" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E256" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="257" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E257" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="258" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E258" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="259" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E259" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="260" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E260" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="261" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B261" s="5" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E261" s="2"/>
     </row>
     <row r="262" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E262" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="263" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B263" s="5" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="E263" s="2"/>
     </row>
     <row r="264" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E264" s="2" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="265" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B265" s="5" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E265" s="2"/>
     </row>
     <row r="266" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E266" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="267" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E267" s="2" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="268" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E268" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="269" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E269" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="270" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E270" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="271" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E271" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="272" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E272" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="273" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E273" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="274" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E274" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="275" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E275" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="276" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E276" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="277" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E277" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="278" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E278" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="279" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E279" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="280" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E280" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="281" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B281" s="5" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="E281" s="2"/>
     </row>
     <row r="282" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E282" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="283" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E283" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="284" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E284" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="285" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E285" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="286" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E286" s="1" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="287" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E287" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="288" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E288" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="289" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E289" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="290" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E290" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="291" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E291" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="292" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E292" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="293" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E293" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="294" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E294" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="295" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E295" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="296" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E296" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="297" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E297" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="298" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E298" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="299" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E299" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="300" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E300" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="301" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E301" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="302" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E302" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="303" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E303" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="304" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E304" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="305" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E305" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="306" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E306" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="307" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E307" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="308" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E308" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="309" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E309" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="310" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E310" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="311" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E311" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="312" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E312" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="313" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E313" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="314" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E314" s="2" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="315" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E315" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="316" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E316" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="317" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E317" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="318" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E318" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="319" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E319" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="320" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B320" s="5" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="E320" s="2"/>
     </row>
     <row r="321" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E321" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="322" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E322" s="2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="323" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E323" s="2" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="324" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E324" s="2" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="325" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B325" s="5" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="E325" s="2"/>
     </row>
     <row r="326" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E326" s="2" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="327" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B327" s="5" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="E327" s="2"/>
     </row>
     <row r="328" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E328" s="1" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="329" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E329" s="11" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="330" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E330" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="331" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E331" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="332" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E332" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="333" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E333" s="2" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="334" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E334" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="335" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E335" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="336" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E336" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="337" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E337" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="338" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E338" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="339" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E339" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="340" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E340" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="341" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E341" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="342" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E342" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="343" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E343" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="344" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E344" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="345" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E345" s="2" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="346" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E346" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="347" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E347" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="348" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E348" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="349" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E349" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="350" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E350" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="351" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E351" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="352" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E352" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="353" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E353" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="354" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E354" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="355" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E355" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="356" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E356" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="357" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="E357" s="21" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="358" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E358" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="359" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E359" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="360" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E360" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="361" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E361" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="362" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E362" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="363" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E363" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="364" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E364" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="365" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E365" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="366" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E366" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="367" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E367" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="368" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E368" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="369" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E369" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="370" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E370" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="371" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E371" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="372" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E372" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="373" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E373" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="374" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E374" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="375" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E375" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="376" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E376" s="2" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="377" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E377" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="378" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E378" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="379" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E379" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="380" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E380" s="2" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="381" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E381" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="382" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E382" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="383" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B383" s="5" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="E383" s="2"/>
     </row>
     <row r="384" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E384" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="385" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B385" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E385" s="1"/>
     </row>
     <row r="386" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E386" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="387" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B387" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E387" s="1"/>
     </row>
     <row r="388" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="D388" s="6" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E388" s="1"/>
     </row>
     <row r="389" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E389" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="390" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B390" s="5" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="E390" s="2"/>
     </row>
     <row r="391" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E391" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="392" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B392" s="5" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="E392" s="2"/>
     </row>
-    <row r="393" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E393" s="2" t="s">
-        <v>231</v>
-      </c>
+    <row r="393" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C393" s="7" t="s">
+        <v>601</v>
+      </c>
+      <c r="E393" s="2"/>
     </row>
     <row r="394" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E394" s="1" t="s">
-        <v>513</v>
+      <c r="E394" s="2" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="395" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E395" s="1" t="s">
-        <v>232</v>
+        <v>511</v>
       </c>
     </row>
     <row r="396" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E396" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="397" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E397" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="398" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E398" s="2" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="397" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E397" s="2" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="398" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B398" s="5" t="s">
-        <v>559</v>
-      </c>
-      <c r="E398" s="2"/>
-    </row>
     <row r="399" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E399" s="2" t="s">
-        <v>560</v>
-      </c>
+      <c r="B399" s="5" t="s">
+        <v>557</v>
+      </c>
+      <c r="E399" s="2"/>
     </row>
     <row r="400" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B400" s="5" t="s">
-        <v>576</v>
-      </c>
-      <c r="E400" s="2"/>
-    </row>
-    <row r="401" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E401" s="3" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="402" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B402" s="5" t="s">
-        <v>516</v>
-      </c>
-      <c r="E402" s="2"/>
+      <c r="E400" s="2" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="401" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B401" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="E401" s="2"/>
+    </row>
+    <row r="402" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E402" s="3" t="s">
+        <v>573</v>
+      </c>
     </row>
     <row r="403" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E403" s="2" t="s">
+      <c r="B403" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="E403" s="2"/>
+    </row>
+    <row r="404" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E404" s="2" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="405" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B405" s="5" t="s">
+        <v>512</v>
+      </c>
+      <c r="E405" s="2"/>
+    </row>
+    <row r="406" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E406" s="2" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="407" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B407" s="5" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="404" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B404" s="5" t="s">
-        <v>514</v>
-      </c>
-      <c r="E404" s="2"/>
-    </row>
-    <row r="405" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E405" s="2" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="406" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B406" s="5" t="s">
-        <v>519</v>
-      </c>
-      <c r="E406" s="2"/>
-    </row>
-    <row r="407" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E407" s="2" t="s">
-        <v>518</v>
-      </c>
+      <c r="E407" s="2"/>
     </row>
     <row r="408" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E408" s="2" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="409" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E409" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="410" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B410" s="5" t="s">
+        <v>559</v>
+      </c>
+      <c r="E410" s="2"/>
+    </row>
+    <row r="411" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E411" s="1" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="412" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B412" s="5" t="s">
+        <v>518</v>
+      </c>
+      <c r="E412" s="1"/>
+    </row>
+    <row r="413" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E413" s="4" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="409" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B409" s="5" t="s">
-        <v>561</v>
-      </c>
-      <c r="E409" s="2"/>
-    </row>
-    <row r="410" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E410" s="1" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="411" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B411" s="5" t="s">
-        <v>520</v>
-      </c>
-      <c r="E411" s="1"/>
-    </row>
-    <row r="412" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E412" s="4" t="s">
+    <row r="414" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E414" s="2" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="413" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E413" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="414" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E414" s="1" t="s">
-        <v>521</v>
-      </c>
-    </row>
     <row r="415" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E415" s="2" t="s">
-        <v>238</v>
+      <c r="E415" s="1" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="416" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E416" s="2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="417" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B417" s="5" t="s">
-        <v>522</v>
-      </c>
-      <c r="E417" s="2"/>
-    </row>
-    <row r="418" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E418" s="2" t="s">
-        <v>523</v>
-      </c>
+        <v>237</v>
+      </c>
+    </row>
+    <row r="417" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E417" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="418" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B418" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="E418" s="2"/>
     </row>
     <row r="419" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E419" s="2" t="s">
-        <v>240</v>
+        <v>521</v>
       </c>
     </row>
     <row r="420" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E420" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="421" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E421" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="422" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E422" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="423" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B423" s="5" t="s">
+        <v>522</v>
+      </c>
+      <c r="E423" s="2"/>
+    </row>
+    <row r="424" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D424" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="E424" s="2"/>
+    </row>
+    <row r="425" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E425" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="426" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B426" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="E426" s="1"/>
+    </row>
+    <row r="427" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C427" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="E427" s="1"/>
+    </row>
+    <row r="428" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D428" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="E428" s="1"/>
+    </row>
+    <row r="429" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E429" s="2" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="422" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B422" s="5" t="s">
-        <v>524</v>
-      </c>
-      <c r="E422" s="2"/>
-    </row>
-    <row r="423" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="D423" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="E423" s="2"/>
-    </row>
-    <row r="424" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E424" s="1" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="425" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B425" s="5" t="s">
-        <v>458</v>
-      </c>
-      <c r="E425" s="1"/>
-    </row>
-    <row r="426" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C426" s="7" t="s">
-        <v>456</v>
-      </c>
-      <c r="E426" s="1"/>
-    </row>
-    <row r="427" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="D427" s="6" t="s">
-        <v>457</v>
-      </c>
-      <c r="E427" s="1"/>
-    </row>
-    <row r="428" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E428" s="2" t="s">
+    <row r="430" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E430" s="4" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="429" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E429" s="4" t="s">
+    <row r="431" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E431" s="2" t="s">
         <v>244</v>
-      </c>
-    </row>
-    <row r="430" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E430" s="2" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="431" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E431" s="1" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="432" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E432" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="433" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E433" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="434" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E434" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="435" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E435" s="2" t="s">
         <v>248</v>
-      </c>
-    </row>
-    <row r="434" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E434" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="435" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E435" s="1" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="436" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E436" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="437" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E437" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="438" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E438" s="2" t="s">
-        <v>253</v>
+      <c r="E438" s="1" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="439" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E439" s="2" t="s">
-        <v>455</v>
+        <v>252</v>
       </c>
     </row>
     <row r="440" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E440" s="1" t="s">
-        <v>376</v>
+      <c r="E440" s="2" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="441" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E441" s="2" t="s">
-        <v>254</v>
+      <c r="E441" s="1" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="442" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E442" s="1" t="s">
-        <v>255</v>
+      <c r="E442" s="2" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="443" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E443" s="1" t="s">
-        <v>453</v>
+        <v>254</v>
       </c>
     </row>
     <row r="444" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E444" s="2" t="s">
-        <v>256</v>
+      <c r="E444" s="1" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="445" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E445" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="446" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E446" s="2" t="s">
-        <v>451</v>
+        <v>256</v>
       </c>
     </row>
     <row r="447" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E447" s="1" t="s">
-        <v>258</v>
+      <c r="E447" s="2" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="448" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E448" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="449" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E449" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="450" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E450" s="1" t="s">
-        <v>573</v>
+        <v>259</v>
       </c>
     </row>
     <row r="451" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E451" s="1" t="s">
-        <v>261</v>
+        <v>571</v>
       </c>
     </row>
     <row r="452" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E452" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="453" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E453" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="454" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E454" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="455" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E455" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="456" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E456" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="457" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E457" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="458" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E458" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="459" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E459" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="460" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E460" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="461" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E461" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="462" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E462" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="463" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E463" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="464" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E464" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="465" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E465" s="1" t="s">
-        <v>574</v>
+        <v>273</v>
       </c>
     </row>
     <row r="466" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E466" s="2" t="s">
-        <v>275</v>
+      <c r="E466" s="1" t="s">
+        <v>572</v>
       </c>
     </row>
     <row r="467" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E467" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="468" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E468" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="469" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E469" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="470" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E470" s="2" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="471" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E471" s="21" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="472" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E472" s="2" t="s">
-        <v>280</v>
+        <v>277</v>
+      </c>
+    </row>
+    <row r="471" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E471" s="2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="472" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E472" s="21" t="s">
+        <v>600</v>
       </c>
     </row>
     <row r="473" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E473" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="474" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E474" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="475" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E475" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="476" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E476" s="2" t="s">
-        <v>450</v>
+        <v>282</v>
       </c>
     </row>
     <row r="477" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E477" s="2" t="s">
-        <v>284</v>
+        <v>448</v>
       </c>
     </row>
     <row r="478" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E478" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="479" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E479" s="2" t="s">
-        <v>454</v>
+        <v>284</v>
       </c>
     </row>
     <row r="480" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E480" s="2" t="s">
-        <v>286</v>
+        <v>452</v>
       </c>
     </row>
     <row r="481" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E481" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="482" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E482" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="483" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E483" s="2" t="s">
-        <v>452</v>
+        <v>287</v>
       </c>
     </row>
     <row r="484" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E484" s="2" t="s">
-        <v>289</v>
+        <v>450</v>
       </c>
     </row>
     <row r="485" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E485" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="486" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E486" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="487" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E487" s="2" t="s">
-        <v>378</v>
+        <v>290</v>
       </c>
     </row>
     <row r="488" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E488" s="2" t="s">
-        <v>292</v>
+        <v>376</v>
       </c>
     </row>
     <row r="489" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E489" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="490" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E490" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="491" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E491" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="492" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E492" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="493" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E493" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="494" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E494" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="495" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E495" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="496" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E496" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="497" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E497" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="498" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E498" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="499" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E499" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="500" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E500" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="501" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B501" s="5" t="s">
+      <c r="E501" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="502" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B502" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="E502" s="2"/>
+    </row>
+    <row r="503" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="D503" s="6" t="s">
+        <v>523</v>
+      </c>
+      <c r="E503" s="2"/>
+    </row>
+    <row r="504" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E504" s="2" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="505" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B505" s="5" t="s">
+        <v>586</v>
+      </c>
+      <c r="E505" s="2"/>
+    </row>
+    <row r="506" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E506" s="2" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="507" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B507" s="5" t="s">
         <v>526</v>
       </c>
-      <c r="E501" s="2"/>
-    </row>
-    <row r="502" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="D502" s="6" t="s">
-        <v>525</v>
-      </c>
-      <c r="E502" s="2"/>
-    </row>
-    <row r="503" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E503" s="2" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="504" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B504" s="5" t="s">
-        <v>588</v>
-      </c>
-      <c r="E504" s="2"/>
-    </row>
-    <row r="505" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E505" s="2" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="506" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B506" s="5" t="s">
-        <v>528</v>
-      </c>
-      <c r="E506" s="2"/>
-    </row>
-    <row r="507" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E507" s="1" t="s">
-        <v>305</v>
-      </c>
+      <c r="E507" s="2"/>
     </row>
     <row r="508" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E508" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="509" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E509" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="510" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E510" s="2" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="511" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B511" s="5" t="s">
+        <v>561</v>
+      </c>
+      <c r="E511" s="2"/>
+    </row>
+    <row r="512" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E512" s="2" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="513" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B513" s="5" t="s">
+        <v>528</v>
+      </c>
+      <c r="E513" s="2"/>
+    </row>
+    <row r="514" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E514" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="515" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B515" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="E515" s="2"/>
+    </row>
+    <row r="516" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E516" s="2" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="509" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E509" s="2" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="510" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B510" s="5" t="s">
-        <v>563</v>
-      </c>
-      <c r="E510" s="2"/>
-    </row>
-    <row r="511" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E511" s="2" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="512" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B512" s="5" t="s">
+    <row r="517" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E517" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="518" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E518" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="E512" s="2"/>
-    </row>
-    <row r="513" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E513" s="2" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="514" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B514" s="5" t="s">
-        <v>533</v>
-      </c>
-      <c r="E514" s="2"/>
-    </row>
-    <row r="515" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E515" s="2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="516" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E516" s="1" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="517" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E517" s="2" t="s">
+    </row>
+    <row r="519" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B519" s="5" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="518" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B518" s="5" t="s">
-        <v>534</v>
-      </c>
-      <c r="E518" s="2"/>
-    </row>
-    <row r="519" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E519" s="2" t="s">
-        <v>309</v>
-      </c>
+      <c r="E519" s="2"/>
     </row>
     <row r="520" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E520" s="2" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="521" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E521" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="521" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E521" s="3" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="522" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E522" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="523" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E523" s="3" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="524" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E524" s="2" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="525" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B525" s="5" t="s">
+        <v>534</v>
+      </c>
+      <c r="E525" s="2"/>
+    </row>
+    <row r="526" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E526" s="2" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="522" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B522" s="5" t="s">
-        <v>536</v>
-      </c>
-      <c r="E522" s="2"/>
-    </row>
-    <row r="523" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E523" s="2" t="s">
+    <row r="527" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B527" s="5" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="524" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B524" s="5" t="s">
-        <v>539</v>
-      </c>
-      <c r="E524" s="2"/>
-    </row>
-    <row r="525" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E525" s="2" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="526" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B526" s="5" t="s">
-        <v>579</v>
-      </c>
-      <c r="E526" s="2"/>
-    </row>
-    <row r="527" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E527" s="2" t="s">
-        <v>311</v>
-      </c>
+      <c r="E527" s="2"/>
     </row>
     <row r="528" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E528" s="2" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="529" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E529" s="2" t="s">
-        <v>313</v>
-      </c>
+        <v>536</v>
+      </c>
+    </row>
+    <row r="529" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B529" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="E529" s="2"/>
     </row>
     <row r="530" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E530" s="2" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="531" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E531" s="1" t="s">
-        <v>315</v>
+      <c r="E531" s="2" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="532" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E532" s="2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="533" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E533" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="534" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E534" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="535" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E535" s="2" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="536" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B536" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="E536" s="2"/>
+    </row>
+    <row r="537" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E537" s="2" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="538" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B538" s="5" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="533" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B533" s="5" t="s">
+      <c r="E538" s="2"/>
+    </row>
+    <row r="539" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E539" s="2" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="540" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B540" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="E540" s="2"/>
+    </row>
+    <row r="541" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C541" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="E541" s="2"/>
+    </row>
+    <row r="542" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="D542" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="E542" s="2"/>
+    </row>
+    <row r="543" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E543" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="544" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B544" s="5" t="s">
         <v>541</v>
-      </c>
-      <c r="E533" s="2"/>
-    </row>
-    <row r="534" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E534" s="2" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="535" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B535" s="5" t="s">
-        <v>542</v>
-      </c>
-      <c r="E535" s="2"/>
-    </row>
-    <row r="536" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E536" s="2" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="537" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B537" s="5" t="s">
-        <v>398</v>
-      </c>
-      <c r="E537" s="2"/>
-    </row>
-    <row r="538" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C538" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="E538" s="2"/>
-    </row>
-    <row r="539" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="D539" s="6" t="s">
-        <v>396</v>
-      </c>
-      <c r="E539" s="2"/>
-    </row>
-    <row r="540" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E540" s="1" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="541" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B541" s="5" t="s">
-        <v>543</v>
-      </c>
-      <c r="E541" s="1"/>
-    </row>
-    <row r="542" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E542" s="1" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="543" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B543" s="5" t="s">
-        <v>544</v>
-      </c>
-      <c r="E543" s="1"/>
-    </row>
-    <row r="544" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C544" s="7" t="s">
-        <v>577</v>
       </c>
       <c r="E544" s="1"/>
     </row>
     <row r="545" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E545" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="546" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B546" s="5" t="s">
+        <v>542</v>
+      </c>
+      <c r="E546" s="1"/>
+    </row>
+    <row r="547" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C547" s="7" t="s">
+        <v>575</v>
+      </c>
+      <c r="E547" s="1"/>
+    </row>
+    <row r="548" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E548" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="549" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E549" s="1" t="s">
         <v>316</v>
-      </c>
-    </row>
-    <row r="546" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E546" s="1" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="547" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E547" s="2" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="548" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E548" s="2" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="549" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E549" s="2" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="550" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E550" s="2" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="551" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E551" s="2" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="552" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E552" s="2" t="s">
-        <v>545</v>
+        <v>319</v>
       </c>
     </row>
     <row r="553" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B553" s="5" t="s">
-        <v>546</v>
-      </c>
-      <c r="E553" s="2"/>
+      <c r="E553" s="2" t="s">
+        <v>320</v>
+      </c>
     </row>
     <row r="554" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E554" s="2" t="s">
-        <v>547</v>
+        <v>321</v>
       </c>
     </row>
     <row r="555" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E555" s="23" t="s">
-        <v>601</v>
+      <c r="E555" s="2" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="556" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B556" s="5" t="s">
-        <v>387</v>
+        <v>544</v>
       </c>
       <c r="E556" s="2"/>
     </row>
     <row r="557" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E557" s="1" t="s">
-        <v>323</v>
+      <c r="E557" s="2" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="558" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E558" s="2" t="s">
-        <v>324</v>
+      <c r="E558" s="23" t="s">
+        <v>599</v>
       </c>
     </row>
     <row r="559" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E559" s="2" t="s">
-        <v>325</v>
-      </c>
+      <c r="B559" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="E559" s="2"/>
     </row>
     <row r="560" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E560" s="2" t="s">
-        <v>326</v>
+      <c r="E560" s="1" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="561" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E561" s="2" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="562" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E562" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="563" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E563" s="2" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="564" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E564" s="2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="565" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E565" s="2" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="566" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B566" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="E566" s="2"/>
+    </row>
+    <row r="567" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E567" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="568" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B568" s="5" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="563" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B563" s="5" t="s">
+      <c r="E568" s="1"/>
+    </row>
+    <row r="569" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E569" s="2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="570" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E570" s="2" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="571" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B571" s="5" t="s">
         <v>548</v>
       </c>
-      <c r="E563" s="2"/>
-    </row>
-    <row r="564" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E564" s="1" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="565" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B565" s="5" t="s">
-        <v>390</v>
-      </c>
-      <c r="E565" s="1"/>
-    </row>
-    <row r="566" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E566" s="2" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="567" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E567" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="568" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B568" s="5" t="s">
-        <v>550</v>
-      </c>
-      <c r="E568" s="2"/>
-    </row>
-    <row r="569" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E569" s="1" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="570" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E570" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="571" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E571" s="2" t="s">
-        <v>331</v>
-      </c>
+      <c r="E571" s="2"/>
     </row>
     <row r="572" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E572" s="1" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="573" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E573" s="1" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="574" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E574" s="2" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="575" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E575" s="2" t="s">
-        <v>335</v>
+      <c r="E575" s="1" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="576" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E576" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="577" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E577" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="578" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E578" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="579" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E579" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="580" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E580" s="1" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="577" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E577" s="1" t="s">
+    <row r="581" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E581" s="1" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="578" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E578" s="1" t="s">
+    <row r="582" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E582" s="2" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="579" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E579" s="2" t="s">
+    <row r="583" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E583" s="2" t="s">
         <v>339</v>
-      </c>
-    </row>
-    <row r="580" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E580" s="2" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="581" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E581" s="2" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="582" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E582" s="1" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="583" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E583" s="1" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="584" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E584" s="2" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="585" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E585" s="3" t="s">
-        <v>589</v>
+        <v>340</v>
+      </c>
+    </row>
+    <row r="585" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E585" s="1" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="586" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E586" s="2" t="s">
-        <v>344</v>
+      <c r="E586" s="1" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="587" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E587" s="2" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="588" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E588" s="2" t="s">
-        <v>346</v>
+        <v>342</v>
+      </c>
+    </row>
+    <row r="588" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E588" s="3" t="s">
+        <v>587</v>
       </c>
     </row>
     <row r="589" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E589" s="2" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="590" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E590" s="2" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="591" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E591" s="2" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="592" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E592" s="2" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
     </row>
     <row r="593" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E593" s="2" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="594" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E594" s="2" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="595" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E595" s="2" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="596" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E596" s="2" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="597" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E597" s="2" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="598" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E598" s="2" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="599" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E599" s="2" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="600" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E600" s="2" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="601" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B601" s="5" t="s">
-        <v>552</v>
-      </c>
-      <c r="E601" s="2"/>
-    </row>
-    <row r="602" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="D602" s="6" t="s">
-        <v>554</v>
-      </c>
-      <c r="E602" s="2"/>
+      <c r="E601" s="2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="602" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E602" s="2" t="s">
+        <v>356</v>
+      </c>
     </row>
     <row r="603" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E603" s="2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="604" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E604" s="1" t="s">
-        <v>553</v>
+      <c r="B604" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="E604" s="2"/>
+    </row>
+    <row r="605" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D605" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="E605" s="2"/>
+    </row>
+    <row r="606" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E606" s="2" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="607" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E607" s="1" t="s">
+        <v>551</v>
       </c>
     </row>
   </sheetData>

--- a/data/taxon genera files/K genera reduced.xlsx
+++ b/data/taxon genera files/K genera reduced.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="609">
   <si>
     <t>&lt;Modern plant genus to which the following fossil pollen species have been assigned.&gt;</t>
   </si>
@@ -8929,6 +8929,55 @@
         <family val="2"/>
       </rPr>
       <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Knoxisporites incrassatus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (Kedo) Higgs, in Avkhimovitch et al., 1988</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Kalviwadithyrites saxenae</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Rao 2004 (T)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">KALVIWADITHYRITES </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Rao 2004; p. 118.</t>
     </r>
   </si>
 </sst>
@@ -8936,7 +8985,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -9006,14 +9055,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i/>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -9096,7 +9137,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -9111,28 +9152,25 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -9141,14 +9179,14 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -9461,10 +9499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M607"/>
+  <dimension ref="A1:M610"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" topLeftCell="A587" workbookViewId="0">
+      <selection activeCell="E610" sqref="E610"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -9477,7 +9515,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>570</v>
       </c>
     </row>
@@ -9647,7 +9685,7 @@
       </c>
     </row>
     <row r="35" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="E35" s="9" t="s">
+      <c r="E35" s="8" t="s">
         <v>406</v>
       </c>
     </row>
@@ -9744,2945 +9782,2961 @@
     </row>
     <row r="54" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B54" s="5" t="s">
+        <v>608</v>
+      </c>
+      <c r="E54" s="2"/>
+    </row>
+    <row r="55" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E55" s="2" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B56" s="5" t="s">
         <v>381</v>
       </c>
-      <c r="E54" s="2"/>
-    </row>
-    <row r="55" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E55" s="4" t="s">
+      <c r="E56" s="2"/>
+    </row>
+    <row r="57" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E57" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="56" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E56" s="2" t="s">
+    <row r="58" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E58" s="2" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="57" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E57" s="1" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="58" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E58" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="59" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E59" s="1" t="s">
-        <v>35</v>
+        <v>382</v>
       </c>
     </row>
     <row r="60" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E60" s="1" t="s">
-        <v>384</v>
+        <v>34</v>
       </c>
     </row>
     <row r="61" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E61" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="62" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E62" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E63" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E64" s="1" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="63" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E63" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="64" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E64" s="2" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="65" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E65" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="66" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E66" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="67" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B67" s="5" t="s">
-        <v>463</v>
-      </c>
-      <c r="E67" s="2"/>
+      <c r="E67" s="2" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="68" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E68" s="2" t="s">
-        <v>464</v>
+        <v>41</v>
       </c>
     </row>
     <row r="69" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B69" s="5" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E69" s="2"/>
     </row>
     <row r="70" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E70" s="1" t="s">
-        <v>466</v>
+      <c r="E70" s="2" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="71" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B71" s="5" t="s">
-        <v>360</v>
-      </c>
-      <c r="E71" s="1"/>
+        <v>465</v>
+      </c>
+      <c r="E71" s="2"/>
     </row>
     <row r="72" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E72" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B73" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="E73" s="1"/>
+    </row>
+    <row r="74" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E74" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="73" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E73" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="74" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B74" s="5" t="s">
-        <v>361</v>
-      </c>
-      <c r="E74" s="1"/>
     </row>
     <row r="75" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E75" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B76" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="E76" s="1"/>
+    </row>
+    <row r="77" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E77" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="76" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E76" s="2" t="s">
+    <row r="78" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E78" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="77" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E77" s="2" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="78" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B78" s="5" t="s">
-        <v>467</v>
-      </c>
-      <c r="E78" s="2"/>
     </row>
     <row r="79" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E79" s="2" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
     </row>
     <row r="80" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B80" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="E80" s="2"/>
+    </row>
+    <row r="81" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E81" s="2" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B82" s="5" t="s">
         <v>469</v>
       </c>
-      <c r="E80" s="2"/>
-    </row>
-    <row r="81" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E81" s="1" t="s">
+      <c r="E82" s="2"/>
+    </row>
+    <row r="83" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E83" s="1" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="82" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E82" s="2" t="s">
+    <row r="84" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E84" s="2" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="83" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B83" s="5" t="s">
-        <v>471</v>
-      </c>
-      <c r="E83" s="2"/>
-    </row>
-    <row r="84" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E84" s="1" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="85" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B85" s="5" t="s">
-        <v>362</v>
-      </c>
-      <c r="E85" s="1"/>
+        <v>471</v>
+      </c>
+      <c r="E85" s="2"/>
     </row>
     <row r="86" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E86" s="2" t="s">
-        <v>47</v>
+      <c r="E86" s="1" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="87" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B87" s="5" t="s">
-        <v>473</v>
-      </c>
-      <c r="E87" s="2"/>
+        <v>362</v>
+      </c>
+      <c r="E87" s="1"/>
     </row>
     <row r="88" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E88" s="1" t="s">
-        <v>474</v>
+      <c r="E88" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="89" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B89" s="5" t="s">
-        <v>476</v>
-      </c>
-      <c r="E89" s="1"/>
+        <v>473</v>
+      </c>
+      <c r="E89" s="2"/>
     </row>
     <row r="90" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E90" s="1" t="s">
-        <v>409</v>
+        <v>474</v>
       </c>
     </row>
     <row r="91" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B91" s="5" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E91" s="1"/>
     </row>
     <row r="92" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E92" s="1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="93" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B93" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="E93" s="1"/>
+    </row>
+    <row r="94" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E94" s="1" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="93" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E93" s="2" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="94" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B94" s="5" t="s">
-        <v>407</v>
-      </c>
-      <c r="E94" s="2"/>
     </row>
     <row r="95" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E95" s="2" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="96" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B96" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="E96" s="2"/>
+    </row>
+    <row r="97" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E97" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="96" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E96" s="1" t="s">
+    <row r="98" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E98" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="97" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E97" s="1" t="s">
+    <row r="99" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E99" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="98" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E98" s="1" t="s">
+    <row r="100" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E100" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="99" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E99" s="2" t="s">
+    <row r="101" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E101" s="2" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="100" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E100" s="1" t="s">
+    <row r="102" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E102" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="101" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E101" s="2" t="s">
+    <row r="103" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E103" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="102" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E102" s="2" t="s">
+    <row r="104" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E104" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="103" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E103" s="2" t="s">
+    <row r="105" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E105" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="104" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B104" s="5" t="s">
+    <row r="106" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B106" s="5" t="s">
         <v>595</v>
       </c>
-      <c r="E104" s="2"/>
-    </row>
-    <row r="105" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E105" s="21" t="s">
+      <c r="E106" s="2"/>
+    </row>
+    <row r="107" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E107" s="20" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="106" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B106" s="5" t="s">
+    <row r="108" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B108" s="5" t="s">
         <v>479</v>
       </c>
-      <c r="E106" s="2"/>
-    </row>
-    <row r="107" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E107" s="1" t="s">
+      <c r="E108" s="2"/>
+    </row>
+    <row r="109" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E109" s="1" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="108" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E108" s="2" t="s">
+    <row r="110" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E110" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="109" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B109" s="5" t="s">
+    <row r="111" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B111" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="E109" s="2"/>
-    </row>
-    <row r="110" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="D110" s="6" t="s">
+      <c r="E111" s="2"/>
+    </row>
+    <row r="112" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="D112" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E110" s="2"/>
-    </row>
-    <row r="111" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E111" s="1" t="s">
+      <c r="E112" s="2"/>
+    </row>
+    <row r="113" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E113" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="112" spans="1:13" s="19" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A112"/>
-      <c r="B112" s="12"/>
-      <c r="C112" s="13"/>
-      <c r="D112" s="14"/>
-      <c r="E112" s="1" t="s">
+    <row r="114" spans="1:13" s="18" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A114"/>
+      <c r="B114" s="11"/>
+      <c r="C114" s="12"/>
+      <c r="D114" s="13"/>
+      <c r="E114" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F112" s="15"/>
-      <c r="G112" s="16"/>
-      <c r="H112" s="17"/>
-      <c r="I112" s="18"/>
-      <c r="J112" s="18"/>
-      <c r="K112" s="18"/>
-      <c r="L112" s="18"/>
-      <c r="M112" s="18"/>
-    </row>
-    <row r="113" spans="1:13" s="19" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A113"/>
-      <c r="B113" s="12"/>
-      <c r="C113" s="13"/>
-      <c r="D113" s="14"/>
-      <c r="E113" s="21" t="s">
+      <c r="F114" s="14"/>
+      <c r="G114" s="15"/>
+      <c r="H114" s="16"/>
+      <c r="I114" s="17"/>
+      <c r="J114" s="17"/>
+      <c r="K114" s="17"/>
+      <c r="L114" s="17"/>
+      <c r="M114" s="17"/>
+    </row>
+    <row r="115" spans="1:13" s="18" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A115"/>
+      <c r="B115" s="11"/>
+      <c r="C115" s="12"/>
+      <c r="D115" s="13"/>
+      <c r="E115" s="20" t="s">
         <v>589</v>
       </c>
-      <c r="F113" s="20"/>
-      <c r="G113" s="16"/>
-      <c r="H113" s="17"/>
-      <c r="I113" s="18"/>
-      <c r="J113" s="18"/>
-      <c r="K113" s="18"/>
-      <c r="L113" s="18"/>
-      <c r="M113" s="18"/>
-    </row>
-    <row r="114" spans="1:13" s="19" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A114"/>
-      <c r="B114" s="12"/>
-      <c r="C114" s="13"/>
-      <c r="D114" s="14"/>
-      <c r="E114" s="21" t="s">
+      <c r="F115" s="19"/>
+      <c r="G115" s="15"/>
+      <c r="H115" s="16"/>
+      <c r="I115" s="17"/>
+      <c r="J115" s="17"/>
+      <c r="K115" s="17"/>
+      <c r="L115" s="17"/>
+      <c r="M115" s="17"/>
+    </row>
+    <row r="116" spans="1:13" s="18" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A116"/>
+      <c r="B116" s="11"/>
+      <c r="C116" s="12"/>
+      <c r="D116" s="13"/>
+      <c r="E116" s="20" t="s">
         <v>590</v>
       </c>
-      <c r="F114" s="20"/>
-      <c r="G114" s="16"/>
-      <c r="H114" s="17"/>
-      <c r="I114" s="18"/>
-      <c r="J114" s="18"/>
-      <c r="K114" s="18"/>
-      <c r="L114" s="18"/>
-      <c r="M114" s="18"/>
-    </row>
-    <row r="115" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E115" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="116" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E116" s="21" t="s">
-        <v>591</v>
-      </c>
+      <c r="F116" s="19"/>
+      <c r="G116" s="15"/>
+      <c r="H116" s="16"/>
+      <c r="I116" s="17"/>
+      <c r="J116" s="17"/>
+      <c r="K116" s="17"/>
+      <c r="L116" s="17"/>
+      <c r="M116" s="17"/>
     </row>
     <row r="117" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E117" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E118" s="20" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E119" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="118" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E118" s="2" t="s">
+    <row r="120" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E120" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="119" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B119" s="5" t="s">
+    <row r="121" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B121" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="E119" s="2"/>
-    </row>
-    <row r="120" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E120" s="1" t="s">
+      <c r="E121" s="2"/>
+    </row>
+    <row r="122" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E122" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="121" spans="1:13" s="19" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A121"/>
-      <c r="B121" s="12"/>
-      <c r="C121" s="13"/>
-      <c r="D121" s="14"/>
-      <c r="E121" s="1" t="s">
+    <row r="123" spans="1:13" s="18" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A123"/>
+      <c r="B123" s="11"/>
+      <c r="C123" s="12"/>
+      <c r="D123" s="13"/>
+      <c r="E123" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F121" s="20"/>
-      <c r="G121" s="16"/>
-      <c r="H121" s="17"/>
-      <c r="I121" s="18"/>
-      <c r="J121" s="18"/>
-      <c r="K121" s="18"/>
-      <c r="L121" s="18"/>
-      <c r="M121" s="18"/>
-    </row>
-    <row r="122" spans="1:13" s="19" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A122"/>
-      <c r="B122" s="12"/>
-      <c r="C122" s="13"/>
-      <c r="D122" s="22"/>
-      <c r="E122" s="9" t="s">
+      <c r="F123" s="19"/>
+      <c r="G123" s="15"/>
+      <c r="H123" s="16"/>
+      <c r="I123" s="17"/>
+      <c r="J123" s="17"/>
+      <c r="K123" s="17"/>
+      <c r="L123" s="17"/>
+      <c r="M123" s="17"/>
+    </row>
+    <row r="124" spans="1:13" s="18" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A124"/>
+      <c r="B124" s="11"/>
+      <c r="C124" s="12"/>
+      <c r="D124" s="21"/>
+      <c r="E124" s="8" t="s">
         <v>594</v>
       </c>
-      <c r="F122" s="20"/>
-      <c r="G122" s="16"/>
-      <c r="H122" s="17"/>
-      <c r="I122" s="18"/>
-      <c r="J122" s="18"/>
-      <c r="K122" s="18"/>
-      <c r="L122" s="18"/>
-      <c r="M122" s="18"/>
-    </row>
-    <row r="123" spans="1:13" s="19" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A123"/>
-      <c r="B123" s="12"/>
-      <c r="C123" s="13"/>
-      <c r="D123" s="14"/>
-      <c r="E123" s="21" t="s">
+      <c r="F124" s="19"/>
+      <c r="G124" s="15"/>
+      <c r="H124" s="16"/>
+      <c r="I124" s="17"/>
+      <c r="J124" s="17"/>
+      <c r="K124" s="17"/>
+      <c r="L124" s="17"/>
+      <c r="M124" s="17"/>
+    </row>
+    <row r="125" spans="1:13" s="18" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A125"/>
+      <c r="B125" s="11"/>
+      <c r="C125" s="12"/>
+      <c r="D125" s="13"/>
+      <c r="E125" s="20" t="s">
         <v>592</v>
       </c>
-      <c r="F123" s="20"/>
-      <c r="G123" s="16"/>
-      <c r="H123" s="17"/>
-      <c r="I123" s="18"/>
-      <c r="J123" s="18"/>
-      <c r="K123" s="18"/>
-      <c r="L123" s="18"/>
-      <c r="M123" s="18"/>
-    </row>
-    <row r="124" spans="1:13" s="19" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A124"/>
-      <c r="B124" s="12"/>
-      <c r="C124" s="13"/>
-      <c r="D124" s="14"/>
-      <c r="E124" s="1" t="s">
+      <c r="F125" s="19"/>
+      <c r="G125" s="15"/>
+      <c r="H125" s="16"/>
+      <c r="I125" s="17"/>
+      <c r="J125" s="17"/>
+      <c r="K125" s="17"/>
+      <c r="L125" s="17"/>
+      <c r="M125" s="17"/>
+    </row>
+    <row r="126" spans="1:13" s="18" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A126"/>
+      <c r="B126" s="11"/>
+      <c r="C126" s="12"/>
+      <c r="D126" s="13"/>
+      <c r="E126" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="F124" s="15"/>
-      <c r="G124" s="16"/>
-      <c r="H124" s="17"/>
-      <c r="I124" s="18"/>
-      <c r="J124" s="18"/>
-      <c r="K124" s="18"/>
-      <c r="L124" s="18"/>
-      <c r="M124" s="18"/>
-    </row>
-    <row r="125" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E125" s="1" t="s">
+      <c r="F126" s="14"/>
+      <c r="G126" s="15"/>
+      <c r="H126" s="16"/>
+      <c r="I126" s="17"/>
+      <c r="J126" s="17"/>
+      <c r="K126" s="17"/>
+      <c r="L126" s="17"/>
+      <c r="M126" s="17"/>
+    </row>
+    <row r="127" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E127" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="126" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E126" s="2" t="s">
+    <row r="128" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E128" s="2" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="127" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E127" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="128" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E128" s="9" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="129" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E129" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="130" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E130" s="8" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="131" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E131" s="2" t="s">
         <v>67</v>
-      </c>
-    </row>
-    <row r="130" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B130" s="5" t="s">
-        <v>483</v>
-      </c>
-      <c r="E130" s="2"/>
-    </row>
-    <row r="131" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E131" s="1" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="132" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B132" s="5" t="s">
-        <v>485</v>
-      </c>
-      <c r="E132" s="1"/>
+        <v>483</v>
+      </c>
+      <c r="E132" s="2"/>
     </row>
     <row r="133" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E133" s="1" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="134" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B134" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="E134" s="1"/>
+    </row>
+    <row r="135" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E135" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="134" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E134" s="1" t="s">
+    <row r="136" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E136" s="1" t="s">
         <v>69</v>
-      </c>
-    </row>
-    <row r="135" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E135" s="2" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="136" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E136" s="2" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="137" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E137" s="2" t="s">
-        <v>71</v>
+        <v>364</v>
       </c>
     </row>
     <row r="138" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E138" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="139" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E139" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="140" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E140" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="139" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B139" s="5" t="s">
+    <row r="141" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B141" s="5" t="s">
         <v>486</v>
       </c>
-      <c r="E139" s="2"/>
-    </row>
-    <row r="140" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E140" s="1" t="s">
+      <c r="E141" s="2"/>
+    </row>
+    <row r="142" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E142" s="1" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="141" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E141" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="142" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B142" s="5" t="s">
-        <v>488</v>
-      </c>
-      <c r="E142" s="1"/>
     </row>
     <row r="143" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E143" s="1" t="s">
-        <v>489</v>
+        <v>73</v>
       </c>
     </row>
     <row r="144" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B144" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="E144" s="1"/>
+    </row>
+    <row r="145" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E145" s="1" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="146" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B146" s="5" t="s">
         <v>490</v>
       </c>
-      <c r="E144" s="1"/>
-    </row>
-    <row r="145" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E145" s="2" t="s">
+      <c r="E146" s="1"/>
+    </row>
+    <row r="147" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E147" s="2" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="146" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E146" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="147" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B147" s="5" t="s">
-        <v>491</v>
-      </c>
-      <c r="E147" s="2"/>
     </row>
     <row r="148" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E148" s="2" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="149" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="149" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B149" s="5" t="s">
-        <v>553</v>
+        <v>491</v>
       </c>
       <c r="E149" s="2"/>
     </row>
     <row r="150" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E150" s="2" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="151" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B151" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="E151" s="2"/>
+    </row>
+    <row r="152" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E152" s="2" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="151" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E151" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="152" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E152" s="1" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="153" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E153" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="154" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E154" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="155" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E155" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="156" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E156" s="1" t="s">
         <v>79</v>
-      </c>
-    </row>
-    <row r="155" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E155" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="156" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E156" s="2" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="157" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E157" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="158" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E158" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="159" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E159" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="160" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E160" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="161" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E161" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="162" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E162" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="163" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E163" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="164" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E164" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="165" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E165" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="166" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E166" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="167" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E167" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="166" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E166" s="1" t="s">
+    <row r="168" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E168" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="167" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B167" s="5" t="s">
+    <row r="169" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B169" s="5" t="s">
         <v>555</v>
       </c>
-      <c r="E167" s="1"/>
-    </row>
-    <row r="168" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E168" s="2" t="s">
+      <c r="E169" s="1"/>
+    </row>
+    <row r="170" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E170" s="2" t="s">
         <v>556</v>
-      </c>
-    </row>
-    <row r="169" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E169" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="170" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E170" s="1" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="171" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E171" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="172" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E172" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="173" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E173" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="172" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E172" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="173" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B173" s="5" t="s">
-        <v>389</v>
-      </c>
-      <c r="E173" s="2"/>
     </row>
     <row r="174" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E174" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="175" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B175" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="E175" s="2"/>
+    </row>
+    <row r="176" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E176" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="175" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E175" s="2" t="s">
+    <row r="177" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E177" s="2" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="176" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B176" s="5" t="s">
+    <row r="178" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B178" s="5" t="s">
         <v>492</v>
       </c>
-      <c r="E176" s="2"/>
-    </row>
-    <row r="177" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E177" s="1" t="s">
+      <c r="E178" s="2"/>
+    </row>
+    <row r="179" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E179" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="178" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E178" s="2" t="s">
+    <row r="180" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E180" s="2" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="179" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B179" s="5" t="s">
+    <row r="181" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B181" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="E179" s="2"/>
-    </row>
-    <row r="180" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E180" s="1" t="s">
+      <c r="E181" s="2"/>
+    </row>
+    <row r="182" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E182" s="1" t="s">
         <v>495</v>
-      </c>
-    </row>
-    <row r="181" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E181" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="182" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E182" s="2" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="183" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E183" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="184" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E184" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="185" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E185" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="186" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E186" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="187" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E187" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="186" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B186" s="5" t="s">
+    <row r="188" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B188" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="E186" s="2"/>
-    </row>
-    <row r="187" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E187" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="188" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E188" s="1" t="s">
-        <v>104</v>
-      </c>
+      <c r="E188" s="2"/>
     </row>
     <row r="189" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E189" s="1" t="s">
-        <v>393</v>
+        <v>103</v>
       </c>
     </row>
     <row r="190" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E190" s="1" t="s">
-        <v>411</v>
+        <v>104</v>
       </c>
     </row>
     <row r="191" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E191" s="1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="192" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E192" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="193" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E193" s="1" t="s">
         <v>105</v>
-      </c>
-    </row>
-    <row r="192" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E192" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="193" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E193" s="2" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="194" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E194" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="195" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E195" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="196" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E196" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="197" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E197" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="198" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E198" s="2" t="s">
-        <v>392</v>
+        <v>110</v>
       </c>
     </row>
     <row r="199" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E199" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="200" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E200" s="2" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="201" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E201" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="202" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E202" s="2" t="s">
         <v>113</v>
-      </c>
-    </row>
-    <row r="201" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B201" s="5" t="s">
-        <v>583</v>
-      </c>
-      <c r="E201" s="2"/>
-    </row>
-    <row r="202" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E202" s="3" t="s">
-        <v>584</v>
       </c>
     </row>
     <row r="203" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B203" s="5" t="s">
+        <v>583</v>
+      </c>
+      <c r="E203" s="2"/>
+    </row>
+    <row r="204" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E204" s="3" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="205" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B205" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="E203" s="1"/>
-    </row>
-    <row r="204" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E204" s="1" t="s">
+      <c r="E205" s="1"/>
+    </row>
+    <row r="206" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E206" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="205" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E205" s="21" t="s">
+    <row r="207" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E207" s="20" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="206" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B206" s="5" t="s">
+    <row r="208" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B208" s="5" t="s">
         <v>412</v>
       </c>
-      <c r="E206" s="1"/>
-    </row>
-    <row r="207" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="D207" s="6" t="s">
+      <c r="E208" s="1"/>
+    </row>
+    <row r="209" spans="4:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D209" s="6" t="s">
         <v>413</v>
       </c>
-      <c r="E207" s="1"/>
-    </row>
-    <row r="208" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E208" s="4" t="s">
+      <c r="E209" s="1"/>
+    </row>
+    <row r="210" spans="4:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E210" s="4" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="209" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E209" s="1" t="s">
+    <row r="211" spans="4:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E211" s="1" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="210" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E210" s="1" t="s">
+    <row r="212" spans="4:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E212" s="1" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="211" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E211" s="1" t="s">
+    <row r="213" spans="4:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E213" s="1" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="212" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E212" s="1" t="s">
+    <row r="214" spans="4:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E214" s="1" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="213" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E213" s="1" t="s">
+    <row r="215" spans="4:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E215" s="1" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="214" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E214" s="2" t="s">
+    <row r="216" spans="4:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E216" s="2" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="215" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E215" s="2" t="s">
+    <row r="217" spans="4:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E217" s="2" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="216" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E216" s="2" t="s">
+    <row r="218" spans="4:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E218" s="2" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="217" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E217" s="1" t="s">
+    <row r="219" spans="4:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E219" s="1" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="218" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E218" s="1" t="s">
+    <row r="220" spans="4:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E220" s="1" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="219" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E219" s="1" t="s">
+    <row r="221" spans="4:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E221" s="1" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="220" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E220" s="1" t="s">
+    <row r="222" spans="4:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E222" s="1" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="221" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E221" s="2" t="s">
+    <row r="223" spans="4:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E223" s="2" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="222" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E222" s="2" t="s">
+    <row r="224" spans="4:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E224" s="2" t="s">
         <v>427</v>
-      </c>
-    </row>
-    <row r="223" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E223" s="2" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="224" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E224" s="2" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="225" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E225" s="2" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="226" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E226" s="1" t="s">
-        <v>430</v>
+      <c r="E226" s="2" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="227" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E227" s="2" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="228" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E228" s="2" t="s">
-        <v>432</v>
+      <c r="E228" s="1" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="229" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E229" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="230" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E230" s="2" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="231" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E231" s="2" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="232" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E232" s="2" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="233" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E233" s="2" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="234" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E234" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="235" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E235" s="2" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="236" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E236" s="2" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="235" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E235" s="1" t="s">
+    <row r="237" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E237" s="1" t="s">
         <v>439</v>
-      </c>
-    </row>
-    <row r="236" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B236" s="5" t="s">
-        <v>496</v>
-      </c>
-      <c r="E236" s="1"/>
-    </row>
-    <row r="237" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E237" s="2" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="238" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B238" s="5" t="s">
-        <v>366</v>
-      </c>
-      <c r="E238" s="2"/>
+        <v>496</v>
+      </c>
+      <c r="E238" s="1"/>
     </row>
     <row r="239" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E239" s="2" t="s">
-        <v>115</v>
+        <v>497</v>
       </c>
     </row>
     <row r="240" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B240" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="E240" s="2"/>
+    </row>
+    <row r="241" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E241" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="242" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B242" s="5" t="s">
         <v>498</v>
       </c>
-      <c r="E240" s="2"/>
-    </row>
-    <row r="241" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E241" s="4" t="s">
+      <c r="E242" s="2"/>
+    </row>
+    <row r="243" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E243" s="4" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="242" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E242" s="1" t="s">
+    <row r="244" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E244" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="243" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E243" s="1" t="s">
+    <row r="245" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E245" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="244" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E244" s="1" t="s">
+    <row r="246" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E246" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="245" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E245" s="1" t="s">
+    <row r="247" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E247" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="246" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E246" s="1" t="s">
+    <row r="248" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E248" s="1" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="247" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E247" s="1" t="s">
+    <row r="249" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E249" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="248" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E248" s="1" t="s">
+    <row r="250" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E250" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="249" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E249" s="2" t="s">
+    <row r="251" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E251" s="2" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="250" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E250" s="2" t="s">
+    <row r="252" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E252" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="251" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E251" s="1" t="s">
+    <row r="253" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E253" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="252" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E252" s="1" t="s">
+    <row r="254" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E254" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="253" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E253" s="2" t="s">
+    <row r="255" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E255" s="2" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="254" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E254" s="2" t="s">
+    <row r="256" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E256" s="2" t="s">
         <v>128</v>
-      </c>
-    </row>
-    <row r="255" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E255" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="256" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E256" s="2" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="257" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E257" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="258" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E258" s="2" t="s">
-        <v>131</v>
+        <v>499</v>
       </c>
     </row>
     <row r="259" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E259" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="260" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E260" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="261" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B261" s="5" t="s">
-        <v>441</v>
-      </c>
-      <c r="E261" s="2"/>
+      <c r="E261" s="2" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="262" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E262" s="2" t="s">
-        <v>442</v>
+        <v>133</v>
       </c>
     </row>
     <row r="263" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B263" s="5" t="s">
-        <v>500</v>
+        <v>441</v>
       </c>
       <c r="E263" s="2"/>
     </row>
     <row r="264" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E264" s="2" t="s">
-        <v>501</v>
+        <v>442</v>
       </c>
     </row>
     <row r="265" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B265" s="5" t="s">
-        <v>443</v>
+        <v>500</v>
       </c>
       <c r="E265" s="2"/>
     </row>
     <row r="266" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E266" s="2" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="267" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B267" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="E267" s="2"/>
+    </row>
+    <row r="268" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E268" s="2" t="s">
         <v>134</v>
-      </c>
-    </row>
-    <row r="267" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E267" s="2" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="268" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E268" s="1" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="269" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E269" s="2" t="s">
-        <v>135</v>
+        <v>446</v>
       </c>
     </row>
     <row r="270" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E270" s="1" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="271" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E271" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="272" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E272" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="271" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E271" s="1" t="s">
+    <row r="273" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E273" s="1" t="s">
         <v>137</v>
-      </c>
-    </row>
-    <row r="272" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E272" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="273" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E273" s="2" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="274" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E274" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="275" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E275" s="2" t="s">
-        <v>140</v>
+        <v>447</v>
       </c>
     </row>
     <row r="276" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E276" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="277" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E277" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="278" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E278" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="279" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E279" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="280" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E280" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="281" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E281" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="282" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E282" s="2" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="281" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B281" s="5" t="s">
+    <row r="283" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B283" s="5" t="s">
         <v>502</v>
       </c>
-      <c r="E281" s="2"/>
-    </row>
-    <row r="282" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E282" s="1" t="s">
+      <c r="E283" s="2"/>
+    </row>
+    <row r="284" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E284" s="1" t="s">
         <v>146</v>
-      </c>
-    </row>
-    <row r="283" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E283" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="284" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E284" s="2" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="285" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E285" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="286" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E286" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="287" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E287" s="1" t="s">
         <v>149</v>
-      </c>
-    </row>
-    <row r="286" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E286" s="1" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="287" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E287" s="2" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="288" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E288" s="1" t="s">
-        <v>151</v>
+        <v>576</v>
       </c>
     </row>
     <row r="289" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E289" s="1" t="s">
-        <v>152</v>
+      <c r="E289" s="2" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="290" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E290" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="291" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E291" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="292" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E292" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="293" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E293" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="294" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E294" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="295" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E295" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="296" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E296" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="297" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E297" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="298" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E298" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="299" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E299" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="300" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E300" s="1" t="s">
         <v>161</v>
-      </c>
-    </row>
-    <row r="299" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E299" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="300" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E300" s="2" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="301" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E301" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="302" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E302" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="303" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E303" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="304" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E304" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="305" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E305" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="306" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E306" s="2" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="305" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E305" s="2" t="s">
+    <row r="307" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E307" s="2" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="306" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E306" s="2" t="s">
+    <row r="308" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E308" s="2" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="307" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E307" s="2" t="s">
+    <row r="309" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E309" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="308" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E308" s="2" t="s">
+    <row r="310" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E310" s="2" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="309" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E309" s="2" t="s">
+    <row r="311" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E311" s="2" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="310" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E310" s="2" t="s">
+    <row r="312" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E312" s="2" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="311" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E311" s="2" t="s">
+    <row r="313" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E313" s="2" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="312" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E312" s="2" t="s">
+    <row r="314" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E314" s="2" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="313" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E313" s="2" t="s">
+    <row r="315" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E315" s="2" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="314" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E314" s="2" t="s">
+    <row r="316" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E316" s="2" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="315" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E315" s="2" t="s">
+    <row r="317" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E317" s="2" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="316" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E316" s="2" t="s">
+    <row r="318" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E318" s="2" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="317" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E317" s="2" t="s">
+    <row r="319" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E319" s="2" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="318" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E318" s="2" t="s">
+    <row r="320" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E320" s="2" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="319" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E319" s="2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="320" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B320" s="5" t="s">
-        <v>563</v>
-      </c>
-      <c r="E320" s="2"/>
     </row>
     <row r="321" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E321" s="2" t="s">
-        <v>564</v>
+        <v>181</v>
       </c>
     </row>
     <row r="322" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E322" s="2" t="s">
-        <v>566</v>
-      </c>
+      <c r="B322" s="5" t="s">
+        <v>563</v>
+      </c>
+      <c r="E322" s="2"/>
     </row>
     <row r="323" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E323" s="2" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
     </row>
     <row r="324" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E324" s="2" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="325" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B325" s="5" t="s">
-        <v>504</v>
-      </c>
-      <c r="E325" s="2"/>
+      <c r="E325" s="2" t="s">
+        <v>567</v>
+      </c>
     </row>
     <row r="326" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E326" s="2" t="s">
-        <v>505</v>
+        <v>565</v>
       </c>
     </row>
     <row r="327" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B327" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="E327" s="2"/>
+    </row>
+    <row r="328" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E328" s="2" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="329" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B329" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="E327" s="2"/>
-    </row>
-    <row r="328" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E328" s="1" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="329" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E329" s="11" t="s">
-        <v>588</v>
-      </c>
+      <c r="E329" s="2"/>
     </row>
     <row r="330" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E330" s="1" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="331" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E331" s="10" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="332" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E332" s="1" t="s">
         <v>182</v>
-      </c>
-    </row>
-    <row r="331" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E331" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="332" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E332" s="2" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="333" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E333" s="2" t="s">
-        <v>579</v>
+        <v>183</v>
       </c>
     </row>
     <row r="334" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E334" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="335" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E335" s="1" t="s">
-        <v>186</v>
+      <c r="E335" s="2" t="s">
+        <v>579</v>
       </c>
     </row>
     <row r="336" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E336" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="337" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E337" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="338" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E338" s="1" t="s">
-        <v>189</v>
+      <c r="E338" s="2" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="339" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E339" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="340" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E340" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="341" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E341" s="2" t="s">
-        <v>192</v>
+      <c r="E341" s="1" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="342" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E342" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="343" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E343" s="1" t="s">
-        <v>580</v>
+      <c r="E343" s="2" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="344" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E344" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="345" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E345" s="2" t="s">
-        <v>569</v>
+      <c r="E345" s="1" t="s">
+        <v>580</v>
       </c>
     </row>
     <row r="346" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E346" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="347" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E347" s="1" t="s">
-        <v>507</v>
+      <c r="E347" s="2" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="348" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E348" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="349" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E349" s="1" t="s">
-        <v>197</v>
+        <v>507</v>
       </c>
     </row>
     <row r="350" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E350" s="8" t="s">
-        <v>198</v>
+      <c r="E350" s="1" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="351" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E351" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="352" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E352" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
+      </c>
+    </row>
+    <row r="352" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E352" s="3" t="s">
+        <v>606</v>
       </c>
     </row>
     <row r="353" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E353" s="2" t="s">
-        <v>201</v>
+      <c r="E353" s="1" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="354" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E354" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="355" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E355" s="2" t="s">
-        <v>203</v>
+      <c r="E355" s="1" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="356" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E356" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="357" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E357" s="21" t="s">
-        <v>598</v>
+        <v>201</v>
+      </c>
+    </row>
+    <row r="357" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E357" s="1" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="358" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E358" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="359" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E359" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="360" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E360" s="2" t="s">
-        <v>207</v>
+        <v>204</v>
+      </c>
+    </row>
+    <row r="360" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E360" s="20" t="s">
+        <v>598</v>
       </c>
     </row>
     <row r="361" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E361" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="362" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E362" s="2" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="363" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E363" s="2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="364" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E364" s="2" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="365" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E365" s="2" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="366" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E366" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="367" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E367" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="368" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E368" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="369" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E369" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="370" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E370" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="371" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E371" s="2" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="369" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E369" s="2" t="s">
+    <row r="372" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E372" s="2" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="370" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E370" s="2" t="s">
+    <row r="373" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E373" s="2" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="371" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E371" s="2" t="s">
+    <row r="374" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E374" s="2" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="372" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E372" s="2" t="s">
+    <row r="375" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E375" s="2" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="373" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E373" s="2" t="s">
+    <row r="376" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E376" s="2" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="374" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E374" s="2" t="s">
+    <row r="377" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E377" s="2" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="375" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E375" s="2" t="s">
+    <row r="378" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E378" s="2" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="376" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E376" s="2" t="s">
+    <row r="379" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E379" s="2" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="377" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E377" s="2" t="s">
+    <row r="380" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E380" s="2" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="378" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E378" s="2" t="s">
+    <row r="381" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E381" s="2" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="379" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E379" s="2" t="s">
+    <row r="382" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E382" s="2" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="380" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E380" s="2" t="s">
+    <row r="383" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E383" s="2" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="381" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E381" s="1" t="s">
+    <row r="384" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E384" s="1" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="382" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E382" s="2" t="s">
+    <row r="385" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E385" s="2" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="383" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B383" s="5" t="s">
+    <row r="386" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B386" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="E383" s="2"/>
-    </row>
-    <row r="384" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E384" s="1" t="s">
+      <c r="E386" s="2"/>
+    </row>
+    <row r="387" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E387" s="1" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="385" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B385" s="5" t="s">
+    <row r="388" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B388" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="E385" s="1"/>
-    </row>
-    <row r="386" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E386" s="1" t="s">
+      <c r="E388" s="1"/>
+    </row>
+    <row r="389" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E389" s="1" t="s">
         <v>228</v>
-      </c>
-    </row>
-    <row r="387" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B387" s="5" t="s">
-        <v>372</v>
-      </c>
-      <c r="E387" s="1"/>
-    </row>
-    <row r="388" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="D388" s="6" t="s">
-        <v>370</v>
-      </c>
-      <c r="E388" s="1"/>
-    </row>
-    <row r="389" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E389" s="2" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="390" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B390" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="E390" s="1"/>
+    </row>
+    <row r="391" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="D391" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="E391" s="1"/>
+    </row>
+    <row r="392" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E392" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="393" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B393" s="5" t="s">
         <v>509</v>
-      </c>
-      <c r="E390" s="2"/>
-    </row>
-    <row r="391" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E391" s="2" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="392" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B392" s="5" t="s">
-        <v>510</v>
-      </c>
-      <c r="E392" s="2"/>
-    </row>
-    <row r="393" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C393" s="7" t="s">
-        <v>601</v>
       </c>
       <c r="E393" s="2"/>
     </row>
     <row r="394" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E394" s="2" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="395" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B395" s="5" t="s">
+        <v>510</v>
+      </c>
+      <c r="E395" s="2"/>
+    </row>
+    <row r="396" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C396" s="7" t="s">
+        <v>601</v>
+      </c>
+      <c r="E396" s="2"/>
+    </row>
+    <row r="397" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E397" s="2" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="395" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E395" s="1" t="s">
+    <row r="398" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E398" s="1" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="396" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E396" s="1" t="s">
+    <row r="399" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E399" s="1" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="397" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E397" s="1" t="s">
+    <row r="400" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E400" s="1" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="398" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E398" s="2" t="s">
+    <row r="401" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E401" s="2" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="399" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B399" s="5" t="s">
+    <row r="402" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B402" s="5" t="s">
         <v>557</v>
       </c>
-      <c r="E399" s="2"/>
-    </row>
-    <row r="400" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E400" s="2" t="s">
+      <c r="E402" s="2"/>
+    </row>
+    <row r="403" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E403" s="2" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="401" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B401" s="5" t="s">
+    <row r="404" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B404" s="5" t="s">
         <v>574</v>
       </c>
-      <c r="E401" s="2"/>
-    </row>
-    <row r="402" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E402" s="3" t="s">
+      <c r="E404" s="2"/>
+    </row>
+    <row r="405" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E405" s="3" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="403" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B403" s="5" t="s">
+    <row r="406" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B406" s="5" t="s">
         <v>514</v>
       </c>
-      <c r="E403" s="2"/>
-    </row>
-    <row r="404" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E404" s="2" t="s">
+      <c r="E406" s="2"/>
+    </row>
+    <row r="407" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E407" s="2" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="405" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B405" s="5" t="s">
+    <row r="408" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B408" s="5" t="s">
         <v>512</v>
       </c>
-      <c r="E405" s="2"/>
-    </row>
-    <row r="406" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E406" s="2" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="407" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B407" s="5" t="s">
-        <v>517</v>
-      </c>
-      <c r="E407" s="2"/>
-    </row>
-    <row r="408" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E408" s="2" t="s">
-        <v>516</v>
-      </c>
+      <c r="E408" s="2"/>
     </row>
     <row r="409" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E409" s="2" t="s">
-        <v>234</v>
+        <v>513</v>
       </c>
     </row>
     <row r="410" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B410" s="5" t="s">
+        <v>517</v>
+      </c>
+      <c r="E410" s="2"/>
+    </row>
+    <row r="411" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E411" s="2" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="412" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E412" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="413" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B413" s="5" t="s">
         <v>559</v>
       </c>
-      <c r="E410" s="2"/>
-    </row>
-    <row r="411" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E411" s="1" t="s">
+      <c r="E413" s="2"/>
+    </row>
+    <row r="414" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E414" s="1" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="412" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B412" s="5" t="s">
+    <row r="415" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B415" s="5" t="s">
         <v>518</v>
       </c>
-      <c r="E412" s="1"/>
-    </row>
-    <row r="413" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E413" s="4" t="s">
+      <c r="E415" s="1"/>
+    </row>
+    <row r="416" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E416" s="4" t="s">
         <v>235</v>
-      </c>
-    </row>
-    <row r="414" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E414" s="2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="415" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E415" s="1" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="416" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E416" s="2" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="417" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E417" s="2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="418" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B418" s="5" t="s">
-        <v>520</v>
-      </c>
-      <c r="E418" s="2"/>
+        <v>236</v>
+      </c>
+    </row>
+    <row r="418" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E418" s="1" t="s">
+        <v>519</v>
+      </c>
     </row>
     <row r="419" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E419" s="2" t="s">
-        <v>521</v>
+        <v>237</v>
       </c>
     </row>
     <row r="420" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E420" s="2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="421" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E421" s="2" t="s">
-        <v>240</v>
-      </c>
+        <v>238</v>
+      </c>
+    </row>
+    <row r="421" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B421" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="E421" s="2"/>
     </row>
     <row r="422" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E422" s="2" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="423" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E423" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="424" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E424" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="425" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E425" s="2" t="s">
         <v>241</v>
-      </c>
-    </row>
-    <row r="423" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B423" s="5" t="s">
-        <v>522</v>
-      </c>
-      <c r="E423" s="2"/>
-    </row>
-    <row r="424" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="D424" s="6" t="s">
-        <v>373</v>
-      </c>
-      <c r="E424" s="2"/>
-    </row>
-    <row r="425" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E425" s="1" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="426" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B426" s="5" t="s">
+        <v>522</v>
+      </c>
+      <c r="E426" s="2"/>
+    </row>
+    <row r="427" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D427" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="E427" s="2"/>
+    </row>
+    <row r="428" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E428" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="429" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B429" s="5" t="s">
         <v>456</v>
       </c>
-      <c r="E426" s="1"/>
-    </row>
-    <row r="427" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C427" s="7" t="s">
+      <c r="E429" s="1"/>
+    </row>
+    <row r="430" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C430" s="7" t="s">
         <v>454</v>
       </c>
-      <c r="E427" s="1"/>
-    </row>
-    <row r="428" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="D428" s="6" t="s">
+      <c r="E430" s="1"/>
+    </row>
+    <row r="431" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D431" s="6" t="s">
         <v>455</v>
       </c>
-      <c r="E428" s="1"/>
-    </row>
-    <row r="429" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E429" s="2" t="s">
+      <c r="E431" s="1"/>
+    </row>
+    <row r="432" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E432" s="2" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="430" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E430" s="4" t="s">
+    <row r="433" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E433" s="4" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="431" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E431" s="2" t="s">
+    <row r="434" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E434" s="2" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="432" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E432" s="1" t="s">
+    <row r="435" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E435" s="1" t="s">
         <v>245</v>
-      </c>
-    </row>
-    <row r="433" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E433" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="434" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E434" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="435" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E435" s="2" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="436" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E436" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="437" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E437" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="438" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E438" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="439" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E439" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="440" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E440" s="1" t="s">
         <v>250</v>
-      </c>
-    </row>
-    <row r="438" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E438" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="439" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E439" s="2" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="440" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E440" s="2" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="441" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E441" s="1" t="s">
-        <v>374</v>
+        <v>251</v>
       </c>
     </row>
     <row r="442" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E442" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="443" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E443" s="1" t="s">
-        <v>254</v>
+      <c r="E443" s="2" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="444" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E444" s="1" t="s">
-        <v>451</v>
+        <v>374</v>
       </c>
     </row>
     <row r="445" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E445" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="446" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E446" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="447" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E447" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="448" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E448" s="2" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="446" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E446" s="2" t="s">
+    <row r="449" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E449" s="2" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="447" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E447" s="2" t="s">
+    <row r="450" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E450" s="2" t="s">
         <v>449</v>
-      </c>
-    </row>
-    <row r="448" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E448" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="449" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E449" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="450" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E450" s="1" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="451" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E451" s="1" t="s">
-        <v>571</v>
+        <v>257</v>
       </c>
     </row>
     <row r="452" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E452" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="453" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E453" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="454" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E454" s="1" t="s">
-        <v>262</v>
+        <v>571</v>
       </c>
     </row>
     <row r="455" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E455" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="456" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E456" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="457" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E457" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="458" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E458" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="459" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E459" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="460" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E460" s="1" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="461" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E461" s="1" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="462" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E462" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="463" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E463" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="464" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E464" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="465" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E465" s="1" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="466" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E466" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="467" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E467" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="468" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E468" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="469" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E469" s="1" t="s">
         <v>572</v>
-      </c>
-    </row>
-    <row r="467" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E467" s="2" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="468" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E468" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="469" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E469" s="2" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="470" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E470" s="2" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="471" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E471" s="2" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="472" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E472" s="21" t="s">
-        <v>600</v>
+        <v>275</v>
+      </c>
+    </row>
+    <row r="472" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E472" s="2" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="473" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E473" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="474" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E474" s="2" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="475" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E475" s="2" t="s">
-        <v>281</v>
+        <v>278</v>
+      </c>
+    </row>
+    <row r="475" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E475" s="20" t="s">
+        <v>600</v>
       </c>
     </row>
     <row r="476" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E476" s="2" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="477" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E477" s="2" t="s">
-        <v>448</v>
+        <v>280</v>
       </c>
     </row>
     <row r="478" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E478" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="479" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E479" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="480" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E480" s="2" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
     </row>
     <row r="481" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E481" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="482" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E482" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="483" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E483" s="2" t="s">
-        <v>287</v>
+        <v>452</v>
       </c>
     </row>
     <row r="484" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E484" s="2" t="s">
-        <v>450</v>
+        <v>285</v>
       </c>
     </row>
     <row r="485" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E485" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="486" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E486" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="487" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E487" s="2" t="s">
-        <v>290</v>
+        <v>450</v>
       </c>
     </row>
     <row r="488" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E488" s="2" t="s">
-        <v>376</v>
+        <v>288</v>
       </c>
     </row>
     <row r="489" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E489" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="490" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E490" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="491" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E491" s="2" t="s">
-        <v>293</v>
+        <v>376</v>
       </c>
     </row>
     <row r="492" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E492" s="2" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="493" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E493" s="2" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="494" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E494" s="2" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="495" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E495" s="2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="496" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E496" s="2" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="497" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E497" s="2" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="498" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E498" s="2" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="499" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E499" s="2" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="500" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E500" s="2" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="501" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E501" s="2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="502" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B502" s="5" t="s">
-        <v>524</v>
-      </c>
-      <c r="E502" s="2"/>
+      <c r="E502" s="2" t="s">
+        <v>301</v>
+      </c>
     </row>
     <row r="503" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="D503" s="6" t="s">
-        <v>523</v>
-      </c>
-      <c r="E503" s="2"/>
+      <c r="E503" s="2" t="s">
+        <v>302</v>
+      </c>
     </row>
     <row r="504" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E504" s="2" t="s">
-        <v>525</v>
+        <v>303</v>
       </c>
     </row>
     <row r="505" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B505" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="E505" s="2"/>
+    </row>
+    <row r="506" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="D506" s="6" t="s">
+        <v>523</v>
+      </c>
+      <c r="E506" s="2"/>
+    </row>
+    <row r="507" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E507" s="2" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="508" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B508" s="5" t="s">
         <v>586</v>
       </c>
-      <c r="E505" s="2"/>
-    </row>
-    <row r="506" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E506" s="2" t="s">
+      <c r="E508" s="2"/>
+    </row>
+    <row r="509" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E509" s="2" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="507" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B507" s="5" t="s">
+    <row r="510" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B510" s="5" t="s">
         <v>526</v>
       </c>
-      <c r="E507" s="2"/>
-    </row>
-    <row r="508" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E508" s="1" t="s">
+      <c r="E510" s="2"/>
+    </row>
+    <row r="511" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E511" s="1" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="509" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E509" s="1" t="s">
+    <row r="512" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E512" s="1" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="510" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E510" s="2" t="s">
+    <row r="513" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E513" s="2" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="511" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B511" s="5" t="s">
+    <row r="514" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B514" s="5" t="s">
         <v>561</v>
       </c>
-      <c r="E511" s="2"/>
-    </row>
-    <row r="512" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E512" s="2" t="s">
+      <c r="E514" s="2"/>
+    </row>
+    <row r="515" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E515" s="2" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="513" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B513" s="5" t="s">
+    <row r="516" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B516" s="5" t="s">
         <v>528</v>
       </c>
-      <c r="E513" s="2"/>
-    </row>
-    <row r="514" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E514" s="2" t="s">
+      <c r="E516" s="2"/>
+    </row>
+    <row r="517" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E517" s="2" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="515" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B515" s="5" t="s">
+    <row r="518" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B518" s="5" t="s">
         <v>531</v>
       </c>
-      <c r="E515" s="2"/>
-    </row>
-    <row r="516" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E516" s="2" t="s">
+      <c r="E518" s="2"/>
+    </row>
+    <row r="519" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E519" s="2" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="517" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E517" s="1" t="s">
+    <row r="520" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E520" s="1" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="518" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E518" s="2" t="s">
+    <row r="521" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E521" s="2" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="519" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B519" s="5" t="s">
+    <row r="522" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B522" s="5" t="s">
         <v>532</v>
       </c>
-      <c r="E519" s="2"/>
-    </row>
-    <row r="520" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E520" s="2" t="s">
+      <c r="E522" s="2"/>
+    </row>
+    <row r="523" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E523" s="2" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="521" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E521" s="3" t="s">
+    <row r="524" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E524" s="3" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="522" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E522" s="2" t="s">
+    <row r="525" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E525" s="2" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="523" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E523" s="3" t="s">
+    <row r="526" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E526" s="3" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="524" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E524" s="2" t="s">
+    <row r="527" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E527" s="2" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="525" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B525" s="5" t="s">
+    <row r="528" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B528" s="5" t="s">
         <v>534</v>
       </c>
-      <c r="E525" s="2"/>
-    </row>
-    <row r="526" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E526" s="2" t="s">
+      <c r="E528" s="2"/>
+    </row>
+    <row r="529" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E529" s="2" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="527" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B527" s="5" t="s">
+    <row r="530" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B530" s="5" t="s">
         <v>537</v>
       </c>
-      <c r="E527" s="2"/>
-    </row>
-    <row r="528" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E528" s="2" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="529" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B529" s="5" t="s">
-        <v>577</v>
-      </c>
-      <c r="E529" s="2"/>
-    </row>
-    <row r="530" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E530" s="2" t="s">
-        <v>310</v>
-      </c>
+      <c r="E530" s="2"/>
     </row>
     <row r="531" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E531" s="2" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="532" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E532" s="2" t="s">
-        <v>312</v>
-      </c>
+        <v>536</v>
+      </c>
+    </row>
+    <row r="532" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B532" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="E532" s="2"/>
     </row>
     <row r="533" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E533" s="2" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="534" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E534" s="1" t="s">
-        <v>314</v>
+      <c r="E534" s="2" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="535" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E535" s="2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="536" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E536" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="537" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E537" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="538" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E538" s="2" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="536" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B536" s="5" t="s">
+    <row r="539" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B539" s="5" t="s">
         <v>539</v>
       </c>
-      <c r="E536" s="2"/>
-    </row>
-    <row r="537" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E537" s="2" t="s">
+      <c r="E539" s="2"/>
+    </row>
+    <row r="540" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E540" s="2" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="538" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B538" s="5" t="s">
+    <row r="541" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B541" s="5" t="s">
         <v>540</v>
       </c>
-      <c r="E538" s="2"/>
-    </row>
-    <row r="539" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E539" s="2" t="s">
+      <c r="E541" s="2"/>
+    </row>
+    <row r="542" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E542" s="2" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="540" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B540" s="5" t="s">
+    <row r="543" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B543" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="E540" s="2"/>
-    </row>
-    <row r="541" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C541" s="7" t="s">
+      <c r="E543" s="2"/>
+    </row>
+    <row r="544" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C544" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="E541" s="2"/>
-    </row>
-    <row r="542" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="D542" s="6" t="s">
+      <c r="E544" s="2"/>
+    </row>
+    <row r="545" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="D545" s="6" t="s">
         <v>394</v>
       </c>
-      <c r="E542" s="2"/>
-    </row>
-    <row r="543" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E543" s="1" t="s">
+      <c r="E545" s="2"/>
+    </row>
+    <row r="546" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E546" s="1" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="544" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B544" s="5" t="s">
+    <row r="547" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B547" s="5" t="s">
         <v>541</v>
-      </c>
-      <c r="E544" s="1"/>
-    </row>
-    <row r="545" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E545" s="1" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="546" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B546" s="5" t="s">
-        <v>542</v>
-      </c>
-      <c r="E546" s="1"/>
-    </row>
-    <row r="547" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C547" s="7" t="s">
-        <v>575</v>
       </c>
       <c r="E547" s="1"/>
     </row>
     <row r="548" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E548" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="549" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B549" s="5" t="s">
+        <v>542</v>
+      </c>
+      <c r="E549" s="1"/>
+    </row>
+    <row r="550" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C550" s="7" t="s">
+        <v>575</v>
+      </c>
+      <c r="E550" s="1"/>
+    </row>
+    <row r="551" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E551" s="1" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="549" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E549" s="1" t="s">
+    <row r="552" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E552" s="1" t="s">
         <v>316</v>
-      </c>
-    </row>
-    <row r="550" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E550" s="2" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="551" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E551" s="2" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="552" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E552" s="2" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="553" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E553" s="2" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="554" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E554" s="2" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="555" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E555" s="2" t="s">
-        <v>543</v>
+        <v>319</v>
       </c>
     </row>
     <row r="556" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B556" s="5" t="s">
-        <v>544</v>
-      </c>
-      <c r="E556" s="2"/>
+      <c r="E556" s="2" t="s">
+        <v>320</v>
+      </c>
     </row>
     <row r="557" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E557" s="2" t="s">
-        <v>545</v>
+        <v>321</v>
       </c>
     </row>
     <row r="558" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E558" s="23" t="s">
-        <v>599</v>
+      <c r="E558" s="2" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="559" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B559" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="E559" s="2"/>
+    </row>
+    <row r="560" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E560" s="2" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="561" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E561" s="22" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="562" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B562" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="E559" s="2"/>
-    </row>
-    <row r="560" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E560" s="1" t="s">
+      <c r="E562" s="2"/>
+    </row>
+    <row r="563" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E563" s="1" t="s">
         <v>322</v>
-      </c>
-    </row>
-    <row r="561" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E561" s="2" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="562" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E562" s="2" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="563" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E563" s="2" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="564" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E564" s="2" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="565" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E565" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="566" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E566" s="2" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="567" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E567" s="2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="568" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E568" s="2" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="566" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B566" s="5" t="s">
+    <row r="569" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B569" s="5" t="s">
         <v>546</v>
       </c>
-      <c r="E566" s="2"/>
-    </row>
-    <row r="567" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E567" s="1" t="s">
+      <c r="E569" s="2"/>
+    </row>
+    <row r="570" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E570" s="1" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="568" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B568" s="5" t="s">
+    <row r="571" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B571" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="E568" s="1"/>
-    </row>
-    <row r="569" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E569" s="2" t="s">
+      <c r="E571" s="1"/>
+    </row>
+    <row r="572" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E572" s="2" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="570" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E570" s="2" t="s">
+    <row r="573" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E573" s="2" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="571" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B571" s="5" t="s">
+    <row r="574" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B574" s="5" t="s">
         <v>548</v>
       </c>
-      <c r="E571" s="2"/>
-    </row>
-    <row r="572" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E572" s="1" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="573" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E573" s="1" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="574" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E574" s="2" t="s">
-        <v>330</v>
-      </c>
+      <c r="E574" s="2"/>
     </row>
     <row r="575" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E575" s="1" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="576" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E576" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="577" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E577" s="2" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="578" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E578" s="2" t="s">
-        <v>334</v>
+      <c r="E578" s="1" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="579" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E579" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="580" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E580" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="581" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E581" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="582" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E582" s="1" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="580" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E580" s="1" t="s">
+    <row r="583" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E583" s="1" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="581" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E581" s="1" t="s">
+    <row r="584" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E584" s="1" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="582" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E582" s="2" t="s">
+    <row r="585" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E585" s="2" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="583" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E583" s="2" t="s">
+    <row r="586" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E586" s="2" t="s">
         <v>339</v>
-      </c>
-    </row>
-    <row r="584" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E584" s="2" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="585" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E585" s="1" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="586" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E586" s="1" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="587" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E587" s="2" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="588" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E588" s="3" t="s">
-        <v>587</v>
+        <v>340</v>
+      </c>
+    </row>
+    <row r="588" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E588" s="1" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="589" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E589" s="2" t="s">
-        <v>343</v>
+      <c r="E589" s="1" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="590" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E590" s="2" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="591" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E591" s="2" t="s">
-        <v>345</v>
+        <v>342</v>
+      </c>
+    </row>
+    <row r="591" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E591" s="3" t="s">
+        <v>587</v>
       </c>
     </row>
     <row r="592" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E592" s="2" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="593" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E593" s="2" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="594" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E594" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="595" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E595" s="2" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="596" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E596" s="2" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="597" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E597" s="2" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="598" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E598" s="2" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="599" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E599" s="2" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="600" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E600" s="2" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="601" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E601" s="2" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="602" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E602" s="2" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="603" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E603" s="2" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="604" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B604" s="5" t="s">
-        <v>550</v>
-      </c>
-      <c r="E604" s="2"/>
-    </row>
-    <row r="605" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="D605" s="6" t="s">
-        <v>552</v>
-      </c>
-      <c r="E605" s="2"/>
+      <c r="E604" s="2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="605" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E605" s="2" t="s">
+        <v>356</v>
+      </c>
     </row>
     <row r="606" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E606" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="607" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B607" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="E607" s="2"/>
+    </row>
+    <row r="608" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D608" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="E608" s="2"/>
+    </row>
+    <row r="609" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E609" s="2" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="607" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E607" s="1" t="s">
+    <row r="610" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E610" s="1" t="s">
         <v>551</v>
       </c>
     </row>
